--- a/medicine/Enfance/Yann_Coridian/Yann_Coridian.xlsx
+++ b/medicine/Enfance/Yann_Coridian/Yann_Coridian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yann Coridian est un réalisateur, auteur et directeur de casting français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir été assistant réalisateur, il est directeur de casting pour Noémie Lvovsky, Sylvie Verheyde, Valéria Bruni-Tedeschi et Sophie Fillières. Il réalise en 2013 son premier long-métrage, Ouf, avec Éric Elmosnino dans le rôle principal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été assistant réalisateur, il est directeur de casting pour Noémie Lvovsky, Sylvie Verheyde, Valéria Bruni-Tedeschi et Sophie Fillières. Il réalise en 2013 son premier long-métrage, Ouf, avec Éric Elmosnino dans le rôle principal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2007 : portraits des réalisateurs Valéria Bruni-Tedeschi et Mimmo Calopresti[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2007 : portraits des réalisateurs Valéria Bruni-Tedeschi et Mimmo Calopresti
 2007 : Le baiser (court métrage)
 2013 : Ouf
 2016 : Une jeune fille de 90 ans, documentaire, coréalisateur avec Valéria Bruni-Tedeschi</t>
@@ -575,12 +591,14 @@
           <t>Nominations et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2013 : Nommé au festival international du film de São Paulo pour Ouf
-Prix du public du scénario long-métrage au festival d'Angers[2]
-2012 : Nommé à 4 reprises au Festival International des Jeunes Réalisateurs de Saint-Jean-de-Luz[3]
-2008 : Lauréat de la Fondation Gan pour le Cinéma pour le long-métrage Ouf[4]</t>
+Prix du public du scénario long-métrage au festival d'Angers
+2012 : Nommé à 4 reprises au Festival International des Jeunes Réalisateurs de Saint-Jean-de-Luz
+2008 : Lauréat de la Fondation Gan pour le Cinéma pour le long-métrage Ouf</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Jour où mon papa a perdu son papa, éd. École des loisirs, 2010  (ISBN 2211200567)
 Mon idiot de beau-père, éd. École des loisirs, 2010  (ISBN 2211201822)
@@ -616,7 +636,7 @@
 Le grand petit déjeuner, éd. École des loisirs, 2011
 Collectif, Mon royaume est un cheval, éd. École des loisirs, 2011  (ISBN 2211203736)
 Mon père, l'étoile et moi, éd. École des loisirs, 2012  (ISBN 9782211206624)
-Entrée, plat, dessert, éd. École des loisirs, 2013  (ISBN 9782211212724) [5]
+Entrée, plat, dessert, éd. École des loisirs, 2013  (ISBN 9782211212724) 
 Mon week-end chez grand-mère, ill. Gabriel Gay,  éd. École des loisirs, 2016
 Je veux rester fils unique, ill. Gabriel Gay,  éd. École des loisirs, 2017
 Entre hommes, ill. Gabriel Gay,  éd. École des loisirs, 2018
